--- a/spreadsheets/Sion.xlsx
+++ b/spreadsheets/Sion.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78279F82-86DB-48F9-BD0A-B2249711F457}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79762CDE-462C-48A4-8A5B-780836E017FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="30180" yWindow="2010" windowWidth="21525" windowHeight="11835" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,6 +865,9 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>63</v>
@@ -978,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095CAD4B-6F75-45EC-9CCF-5590BB3785E1}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
